--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1267697385519468</v>
+        <v>2.328981359987906</v>
       </c>
       <c r="C2">
-        <v>0.3707486972815517</v>
+        <v>-0.6012016438619422</v>
       </c>
       <c r="D2">
-        <v>-0.2245726451952421</v>
+        <v>-0.837771994326261</v>
       </c>
       <c r="E2">
-        <v>0.1395631681161646</v>
+        <v>-0.5121775623451877</v>
       </c>
       <c r="F2">
-        <v>0.5611582813393554</v>
+        <v>0.05154791033427741</v>
       </c>
       <c r="G2">
-        <v>0.4116752527800529</v>
+        <v>-0.2346076846697836</v>
       </c>
       <c r="H2">
-        <v>0.4654823615131349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.1127621191487843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.3960101463791559</v>
+        <v>-0.9720654395460997</v>
       </c>
       <c r="C3">
-        <v>-0.1993111960976379</v>
+        <v>-1.208635790010419</v>
       </c>
       <c r="D3">
-        <v>0.1648246172137688</v>
+        <v>-0.8830413580293452</v>
       </c>
       <c r="E3">
-        <v>0.5864197304369596</v>
+        <v>-0.3193158853498801</v>
       </c>
       <c r="F3">
-        <v>0.4369367018776571</v>
+        <v>-0.605471480353941</v>
       </c>
       <c r="G3">
-        <v>0.4907438106107391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-0.4836259148329418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.2289593817096617</v>
+        <v>-0.7302303441561699</v>
       </c>
       <c r="C4">
-        <v>0.1351764316017451</v>
+        <v>-0.4046359121750967</v>
       </c>
       <c r="D4">
-        <v>0.5567715448249358</v>
+        <v>0.1590895605043684</v>
       </c>
       <c r="E4">
-        <v>0.4072885162656333</v>
+        <v>-0.1270660344996926</v>
       </c>
       <c r="F4">
-        <v>0.4610956249987153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.005220468978693271</v>
+      </c>
+      <c r="G4">
+        <v>-0.4389000132169812</v>
+      </c>
+      <c r="H4">
+        <v>1.446976225670126</v>
+      </c>
+      <c r="I4">
+        <v>-0.2565828398263235</v>
+      </c>
+      <c r="J4">
+        <v>-0.3121643713505491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.3350938636079122</v>
+        <v>-0.2663886325293134</v>
       </c>
       <c r="C5">
-        <v>0.7566889768311029</v>
+        <v>0.2973368401501517</v>
       </c>
       <c r="D5">
-        <v>0.6072059482718004</v>
+        <v>0.0111812451460907</v>
       </c>
       <c r="E5">
-        <v>0.6610130570048824</v>
+        <v>0.13302681066709</v>
       </c>
       <c r="F5">
-        <v>0.3362640218746151</v>
+        <v>-0.3006527335711979</v>
       </c>
       <c r="G5">
-        <v>0.6716310268531516</v>
+        <v>1.585223505315909</v>
       </c>
       <c r="H5">
-        <v>0.7651721482334068</v>
+        <v>-0.1183355601805403</v>
       </c>
       <c r="I5">
-        <v>0.2823252489197217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-0.1739170917047659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7403743865607779</v>
+        <v>0.2463078550078095</v>
       </c>
       <c r="C6">
-        <v>0.5908913580014754</v>
+        <v>-0.03984773999625146</v>
       </c>
       <c r="D6">
-        <v>0.6446984667345574</v>
+        <v>0.08199782552474782</v>
       </c>
       <c r="E6">
-        <v>0.3199494316042901</v>
+        <v>-0.3516817187135401</v>
       </c>
       <c r="F6">
-        <v>0.6553164365828266</v>
+        <v>1.534194520173567</v>
       </c>
       <c r="G6">
-        <v>0.7488575579630818</v>
+        <v>-0.1693645453228824</v>
       </c>
       <c r="H6">
-        <v>0.2660106586493967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.224946076847108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.5325149075415482</v>
+        <v>-0.07311312868471159</v>
       </c>
       <c r="C7">
-        <v>0.5863220162746301</v>
+        <v>0.0487324368362877</v>
       </c>
       <c r="D7">
-        <v>0.2615729811443629</v>
+        <v>-0.3849471074020002</v>
       </c>
       <c r="E7">
-        <v>0.5969399861228994</v>
+        <v>1.500929131485107</v>
       </c>
       <c r="F7">
-        <v>0.6904811075031546</v>
+        <v>-0.2026299340113425</v>
       </c>
       <c r="G7">
-        <v>0.2076342081894694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.2582114655355682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.5525483325209974</v>
+        <v>0.1900396483956045</v>
       </c>
       <c r="C8">
-        <v>0.2277992973907302</v>
+        <v>-0.2436398958426834</v>
       </c>
       <c r="D8">
-        <v>0.5631663023692668</v>
+        <v>1.642236343044424</v>
       </c>
       <c r="E8">
-        <v>0.656707423749522</v>
+        <v>-0.06132272245202575</v>
       </c>
       <c r="F8">
-        <v>0.1738605244358368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.1169042539762514</v>
+      </c>
+      <c r="G8">
+        <v>0.6700456085978389</v>
+      </c>
+      <c r="H8">
+        <v>-1.519651802199725</v>
+      </c>
+      <c r="I8">
+        <v>-0.6816607491277794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1886586256330972</v>
+        <v>-0.3722755437654697</v>
       </c>
       <c r="C9">
-        <v>0.5240256306116338</v>
+        <v>1.513600695121637</v>
       </c>
       <c r="D9">
-        <v>0.6175667519918889</v>
+        <v>-0.1899583703748121</v>
       </c>
       <c r="E9">
-        <v>0.1347198526782037</v>
+        <v>-0.2455399018990377</v>
       </c>
       <c r="F9">
-        <v>0.2443084352756856</v>
+        <v>0.5414099606750526</v>
       </c>
       <c r="G9">
-        <v>0.2734678777818275</v>
+        <v>-1.648287450122512</v>
       </c>
       <c r="H9">
-        <v>0.07477340959222689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.8102963970505657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.4372258646135933</v>
+        <v>1.52334500150552</v>
       </c>
       <c r="C10">
-        <v>0.5307669859938485</v>
+        <v>-0.1802140639909298</v>
       </c>
       <c r="D10">
-        <v>0.04792008668016334</v>
+        <v>-0.2357955955151554</v>
       </c>
       <c r="E10">
-        <v>0.1575086692776452</v>
+        <v>0.5511542670589349</v>
       </c>
       <c r="F10">
-        <v>0.1866681117837871</v>
+        <v>-1.638543143738629</v>
       </c>
       <c r="G10">
-        <v>-0.01202635640581351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.8005520906666834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.4105460110808963</v>
+        <v>-0.4633150438766606</v>
       </c>
       <c r="C11">
-        <v>-0.07230088823278891</v>
+        <v>-0.5188965754008863</v>
       </c>
       <c r="D11">
-        <v>0.03728769436469292</v>
+        <v>0.268053287173204</v>
       </c>
       <c r="E11">
-        <v>0.06644713687083481</v>
+        <v>-1.92164412362436</v>
       </c>
       <c r="F11">
-        <v>-0.1322473313187658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-1.083653070552414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.1915814953489259</v>
+        <v>-0.2040875226113216</v>
       </c>
       <c r="C12">
-        <v>-0.0819929127514441</v>
+        <v>0.5828623399627687</v>
       </c>
       <c r="D12">
-        <v>-0.05283347024530222</v>
+        <v>-1.606835070834796</v>
       </c>
       <c r="E12">
-        <v>-0.2515279384349028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.7688440177628496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.1033493419494363</v>
+        <v>0.6123731026384148</v>
       </c>
       <c r="C13">
-        <v>-0.07418989944329446</v>
+        <v>-1.577324308159149</v>
       </c>
       <c r="D13">
-        <v>-0.272884367632895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.7393332550872035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05675334331768483</v>
+        <v>-1.714346676517737</v>
       </c>
       <c r="C14">
-        <v>-0.2554478115072854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.8763556234457911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.3004593338799694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.7422840489468245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2.328981359987906</v>
+        <v>-0.7091679257846845</v>
       </c>
       <c r="C2">
-        <v>-0.6012016438619422</v>
+        <v>-0.2116494899511859</v>
       </c>
       <c r="D2">
-        <v>-0.837771994326261</v>
+        <v>-0.8069708324279797</v>
       </c>
       <c r="E2">
-        <v>-0.5121775623451877</v>
+        <v>-0.442835019116573</v>
       </c>
       <c r="F2">
-        <v>0.05154791033427741</v>
+        <v>-0.02123990589338218</v>
       </c>
       <c r="G2">
-        <v>-0.2346076846697836</v>
+        <v>-0.1707229344526847</v>
       </c>
       <c r="H2">
-        <v>-0.1127621191487843</v>
+        <v>-0.1169158257196027</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.9720654395460997</v>
+        <v>-0.5825132856353434</v>
       </c>
       <c r="C3">
-        <v>-1.208635790010419</v>
+        <v>-1.177834628112137</v>
       </c>
       <c r="D3">
-        <v>-0.8830413580293452</v>
+        <v>-0.8136988148007305</v>
       </c>
       <c r="E3">
-        <v>-0.3193158853498801</v>
+        <v>-0.3921037015775397</v>
       </c>
       <c r="F3">
-        <v>-0.605471480353941</v>
+        <v>-0.5415867301368422</v>
       </c>
       <c r="G3">
-        <v>-0.4836259148329418</v>
+        <v>-0.4877796214037602</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.7302303441561699</v>
+        <v>-0.6994291822578886</v>
       </c>
       <c r="C4">
-        <v>-0.4046359121750967</v>
+        <v>-0.3352933689464819</v>
       </c>
       <c r="D4">
-        <v>0.1590895605043684</v>
+        <v>0.08630174427670884</v>
       </c>
       <c r="E4">
-        <v>-0.1270660344996926</v>
+        <v>-0.06318128428259367</v>
       </c>
       <c r="F4">
-        <v>-0.005220468978693271</v>
+        <v>-0.009374175549511699</v>
       </c>
       <c r="G4">
-        <v>-0.4389000132169812</v>
+        <v>-0.334123210679779</v>
       </c>
       <c r="H4">
-        <v>1.446976225670126</v>
+        <v>0.001243794298757539</v>
       </c>
       <c r="I4">
-        <v>-0.2565828398263235</v>
+        <v>0.09478491567901273</v>
       </c>
       <c r="J4">
-        <v>-0.3121643713505491</v>
+        <v>-0.3880619836346724</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.2663886325293134</v>
+        <v>-0.1970460893006987</v>
       </c>
       <c r="C5">
-        <v>0.2973368401501517</v>
+        <v>0.2245490239224921</v>
       </c>
       <c r="D5">
-        <v>0.0111812451460907</v>
+        <v>0.07506599536318959</v>
       </c>
       <c r="E5">
-        <v>0.13302681066709</v>
+        <v>0.1288731040962716</v>
       </c>
       <c r="F5">
-        <v>-0.3006527335711979</v>
+        <v>-0.1958759310339957</v>
       </c>
       <c r="G5">
-        <v>1.585223505315909</v>
+        <v>0.1394910739445408</v>
       </c>
       <c r="H5">
-        <v>-0.1183355601805403</v>
+        <v>0.233032195324796</v>
       </c>
       <c r="I5">
-        <v>-0.1739170917047659</v>
+        <v>-0.2498147039888892</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.2463078550078095</v>
+        <v>0.1735200387801499</v>
       </c>
       <c r="C6">
-        <v>-0.03984773999625146</v>
+        <v>0.02403701022084742</v>
       </c>
       <c r="D6">
-        <v>0.08199782552474782</v>
+        <v>0.0778441189539294</v>
       </c>
       <c r="E6">
-        <v>-0.3516817187135401</v>
+        <v>-0.2469049161763379</v>
       </c>
       <c r="F6">
-        <v>1.534194520173567</v>
+        <v>0.08846208880219864</v>
       </c>
       <c r="G6">
-        <v>-0.1693645453228824</v>
+        <v>0.1820032101824538</v>
       </c>
       <c r="H6">
-        <v>-0.224946076847108</v>
+        <v>-0.3008436891312313</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.07311312868471159</v>
+        <v>-0.009228378467612708</v>
       </c>
       <c r="C7">
-        <v>0.0487324368362877</v>
+        <v>0.04457873026546927</v>
       </c>
       <c r="D7">
-        <v>-0.3849471074020002</v>
+        <v>-0.280170304864798</v>
       </c>
       <c r="E7">
-        <v>1.500929131485107</v>
+        <v>0.05519670011373851</v>
       </c>
       <c r="F7">
-        <v>-0.2026299340113425</v>
+        <v>0.1487378214939937</v>
       </c>
       <c r="G7">
-        <v>-0.2582114655355682</v>
+        <v>-0.3341090778196915</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.1900396483956045</v>
+        <v>0.1858859418247861</v>
       </c>
       <c r="C8">
-        <v>-0.2436398958426834</v>
+        <v>-0.1388630933054812</v>
       </c>
       <c r="D8">
-        <v>1.642236343044424</v>
+        <v>0.1965039116730553</v>
       </c>
       <c r="E8">
-        <v>-0.06132272245202575</v>
+        <v>0.2900450330533105</v>
       </c>
       <c r="F8">
-        <v>-0.1169042539762514</v>
+        <v>-0.1928018662603747</v>
       </c>
       <c r="G8">
-        <v>0.6700456085978389</v>
+        <v>-0.08321328366289282</v>
       </c>
       <c r="H8">
-        <v>-1.519651802199725</v>
+        <v>-0.05405384115675094</v>
       </c>
       <c r="I8">
-        <v>-0.6816607491277794</v>
+        <v>-0.2527483093463515</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.3722755437654697</v>
+        <v>-0.2674987412282675</v>
       </c>
       <c r="C9">
-        <v>1.513600695121637</v>
+        <v>0.067868263750269</v>
       </c>
       <c r="D9">
-        <v>-0.1899583703748121</v>
+        <v>0.1614093851305242</v>
       </c>
       <c r="E9">
-        <v>-0.2455399018990377</v>
+        <v>-0.321437514183161</v>
       </c>
       <c r="F9">
-        <v>0.5414099606750526</v>
+        <v>-0.2118489315856791</v>
       </c>
       <c r="G9">
-        <v>-1.648287450122512</v>
+        <v>-0.1826894890795372</v>
       </c>
       <c r="H9">
-        <v>-0.8102963970505657</v>
+        <v>-0.3813839572691378</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.52334500150552</v>
+        <v>0.07761257013415129</v>
       </c>
       <c r="C10">
-        <v>-0.1802140639909298</v>
+        <v>0.1711536915144065</v>
       </c>
       <c r="D10">
-        <v>-0.2357955955151554</v>
+        <v>-0.3116932077992787</v>
       </c>
       <c r="E10">
-        <v>0.5511542670589349</v>
+        <v>-0.2021046252017968</v>
       </c>
       <c r="F10">
-        <v>-1.638543143738629</v>
+        <v>-0.172945182695655</v>
       </c>
       <c r="G10">
-        <v>-0.8005520906666834</v>
+        <v>-0.3716396508852555</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.4633150438766606</v>
+        <v>-0.1119472883713244</v>
       </c>
       <c r="C11">
-        <v>-0.5188965754008863</v>
+        <v>-0.5947941876850096</v>
       </c>
       <c r="D11">
-        <v>0.268053287173204</v>
+        <v>-0.4852056050875277</v>
       </c>
       <c r="E11">
-        <v>-1.92164412362436</v>
+        <v>-0.4560461625813858</v>
       </c>
       <c r="F11">
-        <v>-1.083653070552414</v>
+        <v>-0.6547406307709864</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2040875226113216</v>
+        <v>-0.2799851348954449</v>
       </c>
       <c r="C12">
-        <v>0.5828623399627687</v>
+        <v>-0.170396552297963</v>
       </c>
       <c r="D12">
-        <v>-1.606835070834796</v>
+        <v>-0.1412371097918211</v>
       </c>
       <c r="E12">
-        <v>-0.7688440177628496</v>
+        <v>-0.3399315779814217</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.6123731026384148</v>
+        <v>-0.1408857896223169</v>
       </c>
       <c r="C13">
-        <v>-1.577324308159149</v>
+        <v>-0.111726347116175</v>
       </c>
       <c r="D13">
-        <v>-0.7393332550872035</v>
+        <v>-0.3104208153057756</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-1.714346676517737</v>
+        <v>-0.2487487154747626</v>
       </c>
       <c r="C14">
-        <v>-0.8763556234457911</v>
+        <v>-0.4474431836643632</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.7422840489468245</v>
+        <v>-0.3133716091653966</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>4.980088350417627</v>
+      </c>
+      <c r="C2">
+        <v>-1.914100259330812</v>
+      </c>
+      <c r="D2">
+        <v>-1.007663050405132</v>
+      </c>
+      <c r="E2">
+        <v>-0.151785810996945</v>
+      </c>
+      <c r="F2">
+        <v>-1.058725277584959</v>
+      </c>
+      <c r="G2">
+        <v>-0.7387768986157719</v>
+      </c>
+      <c r="H2">
+        <v>-1.023574700606691</v>
+      </c>
+      <c r="I2">
+        <v>-0.283909097128177</v>
+      </c>
+      <c r="J2">
+        <v>1.578499800897798</v>
+      </c>
+      <c r="K2">
+        <v>-0.126291689659926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1.162521222239259</v>
+      </c>
+      <c r="C3">
+        <v>-0.3066439828310719</v>
+      </c>
+      <c r="D3">
+        <v>-1.213583449419086</v>
+      </c>
+      <c r="E3">
+        <v>-0.8936350704498988</v>
+      </c>
+      <c r="F3">
+        <v>-1.178432872440818</v>
+      </c>
+      <c r="G3">
+        <v>-0.4387672689623039</v>
+      </c>
+      <c r="H3">
+        <v>1.423641629063672</v>
+      </c>
+      <c r="I3">
+        <v>-0.2811498614940529</v>
+      </c>
+      <c r="J3">
+        <v>-0.258564523480767</v>
+      </c>
+      <c r="K3">
+        <v>-0.362242801501391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.7471777914429032</v>
+      </c>
+      <c r="C4">
+        <v>-0.4272294124737159</v>
+      </c>
+      <c r="D4">
+        <v>-0.7120272144646351</v>
+      </c>
+      <c r="E4">
+        <v>0.02763838901387894</v>
+      </c>
+      <c r="F4">
+        <v>1.890047287039854</v>
+      </c>
+      <c r="G4">
+        <v>0.18525579648213</v>
+      </c>
+      <c r="H4">
+        <v>0.2078411344954159</v>
+      </c>
+      <c r="I4">
+        <v>0.1041628564747918</v>
+      </c>
+      <c r="J4">
+        <v>0.6669592797219139</v>
+      </c>
+      <c r="K4">
+        <v>0.645129881850443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.6454387945803051</v>
+      </c>
+      <c r="C5">
+        <v>0.094226808898209</v>
+      </c>
+      <c r="D5">
+        <v>1.956635706924184</v>
+      </c>
+      <c r="E5">
+        <v>0.25184421636646</v>
+      </c>
+      <c r="F5">
+        <v>0.2744295543797459</v>
+      </c>
+      <c r="G5">
+        <v>0.1707512763591219</v>
+      </c>
+      <c r="H5">
+        <v>0.733547699606244</v>
+      </c>
+      <c r="I5">
+        <v>0.711718301734773</v>
+      </c>
+      <c r="J5">
+        <v>0.06878967042524198</v>
+      </c>
+      <c r="K5">
+        <v>-0.07585302950734718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1.855357183660493</v>
+      </c>
+      <c r="C6">
+        <v>0.150565693102769</v>
+      </c>
+      <c r="D6">
+        <v>0.1731510311160549</v>
+      </c>
+      <c r="E6">
+        <v>0.06947275309543088</v>
+      </c>
+      <c r="F6">
+        <v>0.632269176342553</v>
+      </c>
+      <c r="G6">
+        <v>0.610439778471082</v>
+      </c>
+      <c r="H6">
+        <v>-0.03248885283844904</v>
+      </c>
+      <c r="I6">
+        <v>-0.1771315527710382</v>
+      </c>
+      <c r="J6">
+        <v>3.06512068839229</v>
+      </c>
+      <c r="K6">
+        <v>0.717579642417056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.4160636047106501</v>
+      </c>
+      <c r="C7">
+        <v>-0.5197418827312741</v>
+      </c>
+      <c r="D7">
+        <v>0.04305454051584801</v>
+      </c>
+      <c r="E7">
+        <v>0.02122514264437703</v>
+      </c>
+      <c r="F7">
+        <v>-0.621703488665154</v>
+      </c>
+      <c r="G7">
+        <v>-0.7663461885977432</v>
+      </c>
+      <c r="H7">
+        <v>2.475906052565585</v>
+      </c>
+      <c r="I7">
+        <v>0.128365006590351</v>
+      </c>
+      <c r="J7">
+        <v>-0.0773461044273549</v>
+      </c>
+      <c r="K7">
+        <v>-0.1858770778161649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.357649839774139</v>
+      </c>
+      <c r="C8">
+        <v>0.335820441902668</v>
+      </c>
+      <c r="D8">
+        <v>-0.307108189406863</v>
+      </c>
+      <c r="E8">
+        <v>-0.4517508893394522</v>
+      </c>
+      <c r="F8">
+        <v>2.790501351823876</v>
+      </c>
+      <c r="G8">
+        <v>0.442960305848642</v>
+      </c>
+      <c r="H8">
+        <v>0.2372491948309361</v>
+      </c>
+      <c r="I8">
+        <v>0.1287182214421261</v>
+      </c>
+      <c r="J8">
+        <v>2.716762606763196</v>
+      </c>
+      <c r="K8">
+        <v>0.1299501278036661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.4548916988412661</v>
+      </c>
+      <c r="C9">
+        <v>-0.5995343987738553</v>
+      </c>
+      <c r="D9">
+        <v>2.642717842389473</v>
+      </c>
+      <c r="E9">
+        <v>0.2951767964142389</v>
+      </c>
+      <c r="F9">
+        <v>0.08946568539653299</v>
+      </c>
+      <c r="G9">
+        <v>-0.01906528799227702</v>
+      </c>
+      <c r="H9">
+        <v>2.568979097328793</v>
+      </c>
+      <c r="I9">
+        <v>-0.017833381630737</v>
+      </c>
+      <c r="J9">
+        <v>-0.04792608349686112</v>
+      </c>
+      <c r="K9">
+        <v>0.2825416228645989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2.444381704827838</v>
+      </c>
+      <c r="C10">
+        <v>0.09684065885260407</v>
+      </c>
+      <c r="D10">
+        <v>-0.1088704521651018</v>
+      </c>
+      <c r="E10">
+        <v>-0.2174014255539118</v>
+      </c>
+      <c r="F10">
+        <v>2.370642959767158</v>
+      </c>
+      <c r="G10">
+        <v>-0.2161695191923718</v>
+      </c>
+      <c r="H10">
+        <v>-0.2462622210584959</v>
+      </c>
+      <c r="I10">
+        <v>0.08420548530296412</v>
+      </c>
+      <c r="J10">
+        <v>1.986855503708843</v>
+      </c>
+      <c r="K10">
+        <v>1.177057127364582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.3660626802717329</v>
+      </c>
+      <c r="C11">
+        <v>-0.474593653660543</v>
+      </c>
+      <c r="D11">
+        <v>2.113450731660527</v>
+      </c>
+      <c r="E11">
+        <v>-0.4733617472990029</v>
+      </c>
+      <c r="F11">
+        <v>-0.503454449165127</v>
+      </c>
+      <c r="G11">
+        <v>-0.172986742803667</v>
+      </c>
+      <c r="H11">
+        <v>1.729663275602212</v>
+      </c>
+      <c r="I11">
+        <v>0.9198648992579507</v>
+      </c>
+      <c r="J11">
+        <v>0.8101767080015407</v>
+      </c>
+      <c r="K11">
+        <v>0.7375083943671028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2.03212143300264</v>
+      </c>
+      <c r="C12">
+        <v>-0.5546910459568901</v>
+      </c>
+      <c r="D12">
+        <v>-0.5847837478230142</v>
+      </c>
+      <c r="E12">
+        <v>-0.2543160414615542</v>
+      </c>
+      <c r="F12">
+        <v>1.648333976944325</v>
+      </c>
+      <c r="G12">
+        <v>0.8385356006000635</v>
+      </c>
+      <c r="H12">
+        <v>0.7288474093436534</v>
+      </c>
+      <c r="I12">
+        <v>0.6561790957092157</v>
+      </c>
+      <c r="J12">
+        <v>0.2015507383974964</v>
+      </c>
+      <c r="K12">
+        <v>0.2301481051731102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.7561960325818784</v>
+      </c>
+      <c r="C13">
+        <v>-0.4257283262204183</v>
+      </c>
+      <c r="D13">
+        <v>1.476921692185461</v>
+      </c>
+      <c r="E13">
+        <v>0.6671233158411993</v>
+      </c>
+      <c r="F13">
+        <v>0.5574351245847893</v>
+      </c>
+      <c r="G13">
+        <v>0.4847668109503515</v>
+      </c>
+      <c r="H13">
+        <v>0.03013845363863221</v>
+      </c>
+      <c r="I13">
+        <v>0.05873582041424608</v>
+      </c>
+      <c r="J13">
+        <v>0.1255934341205218</v>
+      </c>
+      <c r="K13">
+        <v>0.07524155101088037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1.591251517455103</v>
+      </c>
+      <c r="C14">
+        <v>0.7814531411108419</v>
+      </c>
+      <c r="D14">
+        <v>0.6717649498544318</v>
+      </c>
+      <c r="E14">
+        <v>0.5990966362199941</v>
+      </c>
+      <c r="F14">
+        <v>0.1444682789082747</v>
+      </c>
+      <c r="G14">
+        <v>0.1730656456838886</v>
+      </c>
+      <c r="H14">
+        <v>0.2399232593901643</v>
+      </c>
+      <c r="I14">
+        <v>0.1895713762805229</v>
+      </c>
+      <c r="J14">
+        <v>0.5989459313291519</v>
+      </c>
+      <c r="K14">
+        <v>0.1174818351405491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.550039067294108</v>
+      </c>
+      <c r="C15">
+        <v>0.4773707536596702</v>
+      </c>
+      <c r="D15">
+        <v>0.02274239634795094</v>
+      </c>
+      <c r="E15">
+        <v>0.05133976312356481</v>
+      </c>
+      <c r="F15">
+        <v>0.1181973768298406</v>
+      </c>
+      <c r="G15">
+        <v>0.0678454937201991</v>
+      </c>
+      <c r="H15">
+        <v>0.4772200487688281</v>
+      </c>
+      <c r="I15">
+        <v>-0.004244047419774688</v>
+      </c>
+      <c r="J15">
+        <v>0.1301625966174953</v>
+      </c>
+      <c r="K15">
+        <v>0.3987709681104405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.3607082296289775</v>
+      </c>
+      <c r="C16">
+        <v>-0.3321108628533637</v>
+      </c>
+      <c r="D16">
+        <v>-0.2652532491470879</v>
+      </c>
+      <c r="E16">
+        <v>-0.3156051322567294</v>
+      </c>
+      <c r="F16">
+        <v>0.09376942279189956</v>
+      </c>
+      <c r="G16">
+        <v>-0.3876946733967032</v>
+      </c>
+      <c r="H16">
+        <v>-0.2532880293594332</v>
+      </c>
+      <c r="I16">
+        <v>0.01532034213351208</v>
+      </c>
+      <c r="J16">
+        <v>-0.4779917171069542</v>
+      </c>
+      <c r="K16">
+        <v>-0.5270358698815244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.3303671377884996</v>
+      </c>
+      <c r="C17">
+        <v>-0.380719020898141</v>
+      </c>
+      <c r="D17">
+        <v>0.02865553415048791</v>
+      </c>
+      <c r="E17">
+        <v>-0.4528085620381148</v>
+      </c>
+      <c r="F17">
+        <v>-0.3184019180008448</v>
+      </c>
+      <c r="G17">
+        <v>-0.04979354650789958</v>
+      </c>
+      <c r="H17">
+        <v>-0.5431056057483659</v>
+      </c>
+      <c r="I17">
+        <v>-0.5921497585229361</v>
+      </c>
+      <c r="J17">
+        <v>-0.358002594713227</v>
+      </c>
+      <c r="K17">
+        <v>0.329601513236895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.3749906742772297</v>
+      </c>
+      <c r="C18">
+        <v>-0.1064734219113731</v>
+      </c>
+      <c r="D18">
+        <v>0.02793322212589688</v>
+      </c>
+      <c r="E18">
+        <v>0.2965415936188421</v>
+      </c>
+      <c r="F18">
+        <v>-0.1967704656216241</v>
+      </c>
+      <c r="G18">
+        <v>-0.2458146183961943</v>
+      </c>
+      <c r="H18">
+        <v>-0.01166745458648533</v>
+      </c>
+      <c r="I18">
+        <v>0.6759366533636367</v>
+      </c>
+      <c r="J18">
+        <v>-0.9017124337290151</v>
+      </c>
+      <c r="K18">
+        <v>0.2967310218237472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.07911450462376168</v>
+      </c>
+      <c r="C19">
+        <v>0.3477228761167069</v>
+      </c>
+      <c r="D19">
+        <v>-0.1455891831237593</v>
+      </c>
+      <c r="E19">
+        <v>-0.1946333358983295</v>
+      </c>
+      <c r="F19">
+        <v>0.03951382791137947</v>
+      </c>
+      <c r="G19">
+        <v>0.7271179358615015</v>
+      </c>
+      <c r="H19">
+        <v>-0.8505311512311503</v>
+      </c>
+      <c r="I19">
+        <v>0.347912304321612</v>
+      </c>
+      <c r="J19">
+        <v>0.4727217927869887</v>
+      </c>
+      <c r="K19">
+        <v>0.1919150187030865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.1890420581583271</v>
+      </c>
+      <c r="C20">
+        <v>-0.2380862109328973</v>
+      </c>
+      <c r="D20">
+        <v>-0.003939047123188266</v>
+      </c>
+      <c r="E20">
+        <v>0.6836650608269338</v>
+      </c>
+      <c r="F20">
+        <v>-0.893984026265718</v>
+      </c>
+      <c r="G20">
+        <v>0.3044594292870443</v>
+      </c>
+      <c r="H20">
+        <v>0.429268917752421</v>
+      </c>
+      <c r="I20">
+        <v>0.1484621436685188</v>
+      </c>
+      <c r="J20">
+        <v>1.729268917752421</v>
+      </c>
+      <c r="K20">
+        <v>-0.3213521090953776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.002705323073477928</v>
+      </c>
+      <c r="C21">
+        <v>0.6848987848766441</v>
+      </c>
+      <c r="D21">
+        <v>-0.8927503022160077</v>
+      </c>
+      <c r="E21">
+        <v>0.3056931533367546</v>
+      </c>
+      <c r="F21">
+        <v>0.4305026418021313</v>
+      </c>
+      <c r="G21">
+        <v>0.1496958677182291</v>
+      </c>
+      <c r="H21">
+        <v>1.730502641802131</v>
+      </c>
+      <c r="I21">
+        <v>-0.3201183850456673</v>
+      </c>
+      <c r="J21">
+        <v>-0.3711670725540226</v>
+      </c>
+      <c r="K21">
+        <v>-0.4204323423712357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.7712310498077467</v>
+      </c>
+      <c r="C22">
+        <v>0.4272124057450156</v>
+      </c>
+      <c r="D22">
+        <v>0.5520218942103923</v>
+      </c>
+      <c r="E22">
+        <v>0.2712151201264901</v>
+      </c>
+      <c r="F22">
+        <v>1.852021894210393</v>
+      </c>
+      <c r="G22">
+        <v>-0.1985991326374063</v>
+      </c>
+      <c r="H22">
+        <v>-0.2496478201457616</v>
+      </c>
+      <c r="I22">
+        <v>-0.2989130899629747</v>
+      </c>
+      <c r="J22">
+        <v>1.052021894210392</v>
+      </c>
+      <c r="K22">
+        <v>0.165689649025785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.3861942702885173</v>
+      </c>
+      <c r="C23">
+        <v>0.511003758753894</v>
+      </c>
+      <c r="D23">
+        <v>0.2301969846699918</v>
+      </c>
+      <c r="E23">
+        <v>1.811003758753894</v>
+      </c>
+      <c r="F23">
+        <v>-0.2396172680939046</v>
+      </c>
+      <c r="G23">
+        <v>-0.2906659556022599</v>
+      </c>
+      <c r="H23">
+        <v>-0.3399312254194731</v>
+      </c>
+      <c r="I23">
+        <v>1.011003758753894</v>
+      </c>
+      <c r="J23">
+        <v>0.1246715135692866</v>
+      </c>
+      <c r="K23">
+        <v>-0.087180650699618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.5996936636268386</v>
+      </c>
+      <c r="C24">
+        <v>0.3188868895429365</v>
+      </c>
+      <c r="D24">
+        <v>1.899693663626839</v>
+      </c>
+      <c r="E24">
+        <v>-0.1509273632209599</v>
+      </c>
+      <c r="F24">
+        <v>-0.2019760507293152</v>
+      </c>
+      <c r="G24">
+        <v>-0.2512413205465284</v>
+      </c>
+      <c r="H24">
+        <v>1.099693663626839</v>
+      </c>
+      <c r="I24">
+        <v>0.2133614184422313</v>
+      </c>
+      <c r="J24">
+        <v>0.001509254173326702</v>
+      </c>
+      <c r="K24">
+        <v>0.00248576550049362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.103998179159096</v>
+      </c>
+      <c r="C25">
+        <v>1.684804953242998</v>
+      </c>
+      <c r="D25">
+        <v>-0.3658160736048004</v>
+      </c>
+      <c r="E25">
+        <v>-0.4168647611131557</v>
+      </c>
+      <c r="F25">
+        <v>-0.4661300309303689</v>
+      </c>
+      <c r="G25">
+        <v>0.8848049532429982</v>
+      </c>
+      <c r="H25">
+        <v>-0.001527291941609166</v>
+      </c>
+      <c r="I25">
+        <v>-0.2133794562105138</v>
+      </c>
+      <c r="J25">
+        <v>-0.2124029448833469</v>
+      </c>
+      <c r="K25">
+        <v>-0.1158583063797025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>1.613613100249167</v>
+      </c>
+      <c r="C26">
+        <v>-0.437007926598632</v>
+      </c>
+      <c r="D26">
+        <v>-0.4880566141069873</v>
+      </c>
+      <c r="E26">
+        <v>-0.5373218839242004</v>
+      </c>
+      <c r="F26">
+        <v>0.8136131002491667</v>
+      </c>
+      <c r="G26">
+        <v>-0.07271914493544074</v>
+      </c>
+      <c r="H26">
+        <v>-0.2845713092043454</v>
+      </c>
+      <c r="I26">
+        <v>-0.2835947978771785</v>
+      </c>
+      <c r="J26">
+        <v>-0.1870501593735341</v>
+      </c>
+      <c r="K26">
+        <v>-0.1869129306804567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.4628996826912541</v>
+      </c>
+      <c r="C27">
+        <v>-0.5139483701996095</v>
+      </c>
+      <c r="D27">
+        <v>-0.5632136400168226</v>
+      </c>
+      <c r="E27">
+        <v>0.7877213441565445</v>
+      </c>
+      <c r="F27">
+        <v>-0.09861090102806286</v>
+      </c>
+      <c r="G27">
+        <v>-0.3104630652969675</v>
+      </c>
+      <c r="H27">
+        <v>-0.3094865539698006</v>
+      </c>
+      <c r="I27">
+        <v>-0.2129419154661562</v>
+      </c>
+      <c r="J27">
+        <v>-0.2128046867730788</v>
+      </c>
+      <c r="K27">
+        <v>-1.014144664307419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.6802062091811765</v>
+      </c>
+      <c r="C28">
+        <v>-0.7294714789983896</v>
+      </c>
+      <c r="D28">
+        <v>0.6214635051749775</v>
+      </c>
+      <c r="E28">
+        <v>-0.2648687400096298</v>
+      </c>
+      <c r="F28">
+        <v>-0.4767209042785345</v>
+      </c>
+      <c r="G28">
+        <v>-0.4757443929513676</v>
+      </c>
+      <c r="H28">
+        <v>-0.3791997544477232</v>
+      </c>
+      <c r="I28">
+        <v>-0.3790625257546458</v>
+      </c>
+      <c r="J28">
+        <v>-1.180402503288986</v>
+      </c>
+      <c r="K28">
+        <v>-1.179247587459568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.2881083408279526</v>
+      </c>
+      <c r="C29">
+        <v>1.062826643345415</v>
+      </c>
+      <c r="D29">
+        <v>0.1764943981608071</v>
+      </c>
+      <c r="E29">
+        <v>-0.03535776610809749</v>
+      </c>
+      <c r="F29">
+        <v>-0.03438125478093057</v>
+      </c>
+      <c r="G29">
+        <v>0.06216338372271379</v>
+      </c>
+      <c r="H29">
+        <v>0.06230061241579121</v>
+      </c>
+      <c r="I29">
+        <v>-0.7390393651185485</v>
+      </c>
+      <c r="J29">
+        <v>-0.7378844492891314</v>
+      </c>
+      <c r="K29">
+        <v>-0.6349396499407245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.9586255559732635</v>
+      </c>
+      <c r="C30">
+        <v>0.07229331078865608</v>
+      </c>
+      <c r="D30">
+        <v>-0.1395588534802485</v>
+      </c>
+      <c r="E30">
+        <v>-0.1385823421530816</v>
+      </c>
+      <c r="F30">
+        <v>-0.04203770364943726</v>
+      </c>
+      <c r="G30">
+        <v>-0.04190047495635985</v>
+      </c>
+      <c r="H30">
+        <v>-0.8432404524906996</v>
+      </c>
+      <c r="I30">
+        <v>-0.8420855366612825</v>
+      </c>
+      <c r="J30">
+        <v>-0.7391407373128756</v>
+      </c>
+      <c r="K30">
+        <v>-0.2427458574451109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0.09172831530772496</v>
+      </c>
+      <c r="C31">
+        <v>-0.1201238489611797</v>
+      </c>
+      <c r="D31">
+        <v>-0.1191473376340128</v>
+      </c>
+      <c r="E31">
+        <v>-0.02260269913036839</v>
+      </c>
+      <c r="F31">
+        <v>-0.02246547043729097</v>
+      </c>
+      <c r="G31">
+        <v>-0.8238054479716307</v>
+      </c>
+      <c r="H31">
+        <v>-0.8226505321422136</v>
+      </c>
+      <c r="I31">
+        <v>-0.7197057327938067</v>
+      </c>
+      <c r="J31">
+        <v>-0.223310852926042</v>
+      </c>
+      <c r="K31">
+        <v>0.2742075829074565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-0.2089613631717927</v>
+      </c>
+      <c r="C32">
+        <v>-0.2079848518446258</v>
+      </c>
+      <c r="D32">
+        <v>-0.1114402133409814</v>
+      </c>
+      <c r="E32">
+        <v>-0.111302984647904</v>
+      </c>
+      <c r="F32">
+        <v>-0.9126429621822437</v>
+      </c>
+      <c r="G32">
+        <v>-0.9114880463528267</v>
+      </c>
+      <c r="H32">
+        <v>-0.8085432470044197</v>
+      </c>
+      <c r="I32">
+        <v>-0.3121483671366551</v>
+      </c>
+      <c r="J32">
+        <v>0.1853700686968435</v>
+      </c>
+      <c r="K32">
+        <v>-0.4099512737799503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.4634374139080732</v>
+      </c>
+      <c r="C33">
+        <v>-0.3668927754044289</v>
+      </c>
+      <c r="D33">
+        <v>-0.3667555467113515</v>
+      </c>
+      <c r="E33">
+        <v>-1.168095524245691</v>
+      </c>
+      <c r="F33">
+        <v>-1.166940608416274</v>
+      </c>
+      <c r="G33">
+        <v>-1.063995809067867</v>
+      </c>
+      <c r="H33">
+        <v>-0.5676009292001025</v>
+      </c>
+      <c r="I33">
+        <v>-0.07008249336660399</v>
+      </c>
+      <c r="J33">
+        <v>-0.6654038358433978</v>
+      </c>
+      <c r="K33">
+        <v>-0.301268022531991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-0.3046397970991221</v>
+      </c>
+      <c r="C34">
+        <v>-0.3045025684060447</v>
+      </c>
+      <c r="D34">
+        <v>-1.105842545940384</v>
+      </c>
+      <c r="E34">
+        <v>-1.104687630110967</v>
+      </c>
+      <c r="F34">
+        <v>-1.00174283076256</v>
+      </c>
+      <c r="G34">
+        <v>-0.5053479508947958</v>
+      </c>
+      <c r="H34">
+        <v>-0.007829515061297199</v>
+      </c>
+      <c r="I34">
+        <v>-0.6031508575380911</v>
+      </c>
+      <c r="J34">
+        <v>-0.2390150442266842</v>
+      </c>
+      <c r="K34">
+        <v>0.1825800689965065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-0.3634763529948955</v>
+      </c>
+      <c r="C35">
+        <v>-1.164816330529235</v>
+      </c>
+      <c r="D35">
+        <v>-1.163661414699818</v>
+      </c>
+      <c r="E35">
+        <v>-1.060716615351411</v>
+      </c>
+      <c r="F35">
+        <v>-0.5643217354836465</v>
+      </c>
+      <c r="G35">
+        <v>-0.06680329965014803</v>
+      </c>
+      <c r="H35">
+        <v>-0.6621246421269418</v>
+      </c>
+      <c r="I35">
+        <v>-0.2979888288155351</v>
+      </c>
+      <c r="J35">
+        <v>0.1236062844076557</v>
+      </c>
+      <c r="K35">
+        <v>-0.02587674415164681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-1.475673109089761</v>
+      </c>
+      <c r="C36">
+        <v>-1.474518193260344</v>
+      </c>
+      <c r="D36">
+        <v>-1.371573393911937</v>
+      </c>
+      <c r="E36">
+        <v>-0.8751785140441726</v>
+      </c>
+      <c r="F36">
+        <v>-0.377660078210674</v>
+      </c>
+      <c r="G36">
+        <v>-0.9729814206874678</v>
+      </c>
+      <c r="H36">
+        <v>-0.6088456073760611</v>
+      </c>
+      <c r="I36">
+        <v>-0.1872504941528703</v>
+      </c>
+      <c r="J36">
+        <v>-0.3367335227121728</v>
+      </c>
+      <c r="K36">
+        <v>-0.2829264139790908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-1.3171785118258</v>
+      </c>
+      <c r="C37">
+        <v>-1.214233712477393</v>
+      </c>
+      <c r="D37">
+        <v>-0.7178388326096282</v>
+      </c>
+      <c r="E37">
+        <v>-0.2203203967761297</v>
+      </c>
+      <c r="F37">
+        <v>-0.8156417392529235</v>
+      </c>
+      <c r="G37">
+        <v>-0.4515059259415167</v>
+      </c>
+      <c r="H37">
+        <v>-0.02991081271832599</v>
+      </c>
+      <c r="I37">
+        <v>-0.1793938412776285</v>
+      </c>
+      <c r="J37">
+        <v>-0.1255867325445465</v>
+      </c>
+      <c r="K37">
+        <v>-0.4503357676748138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-1.252927677787496</v>
+      </c>
+      <c r="C38">
+        <v>-0.7565327979197314</v>
+      </c>
+      <c r="D38">
+        <v>-0.2590143620862329</v>
+      </c>
+      <c r="E38">
+        <v>-0.8543357045630267</v>
+      </c>
+      <c r="F38">
+        <v>-0.4901998912516199</v>
+      </c>
+      <c r="G38">
+        <v>-0.06860477802842918</v>
+      </c>
+      <c r="H38">
+        <v>-0.2180878065877317</v>
+      </c>
+      <c r="I38">
+        <v>-0.1642806978546497</v>
+      </c>
+      <c r="J38">
+        <v>-0.489029732984917</v>
+      </c>
+      <c r="K38">
+        <v>-0.1536627280063805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.7091679257846845</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-0.2116494899511859</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>-0.8069708324279797</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>-0.442835019116573</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>-0.02123990589338218</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>-0.1707229344526847</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>-0.1169158257196027</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>-0.44166486084987</v>
+      </c>
+      <c r="J39">
+        <v>-0.1062978558713335</v>
+      </c>
+      <c r="K39">
+        <v>-0.01275673449107828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>-0.5825132856353434</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>-1.177834628112137</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>-0.8136988148007305</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>-0.3921037015775397</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>-0.5415867301368422</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>-0.4877796214037602</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>-0.8125286565340275</v>
+      </c>
+      <c r="I40">
+        <v>-0.477161651555491</v>
+      </c>
+      <c r="J40">
+        <v>-0.3836205301752358</v>
+      </c>
+      <c r="K40">
+        <v>-0.866467429488921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>-0.6994291822578886</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>-0.3352933689464819</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.08630174427670884</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>-0.06318128428259367</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>-0.009374175549511699</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>-0.334123210679779</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.001243794298757539</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.09478491567901273</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.3880619836346724</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.2784734010371906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.1970460893006987</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>0.2245490239224921</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>0.07506599536318959</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.1288731040962716</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-0.1958759310339957</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>0.1394910739445408</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>0.233032195324796</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-0.2498147039888892</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-0.1402261213914073</v>
+      </c>
+      <c r="K42">
+        <v>-0.1110666788852654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.1735200387801499</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.02403701022084742</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>0.0778441189539294</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>-0.2469049161763379</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>0.08846208880219864</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.1820032101824538</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-0.3008436891312313</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>-0.1912551065337495</v>
+      </c>
+      <c r="J43">
+        <v>-0.1620956640276076</v>
+      </c>
+      <c r="K43">
+        <v>-0.3607901322172082</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.009228378467612708</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.04457873026546927</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>-0.280170304864798</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>0.05519670011373851</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.1487378214939937</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.3341090778196915</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.2245204952222096</v>
+      </c>
+      <c r="I44">
+        <v>-0.1953610527160677</v>
+      </c>
+      <c r="J44">
+        <v>-0.3940555209056683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.1858859418247861</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>-0.1388630933054812</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.1965039116730553</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.2900450330533105</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.1928018662603747</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>-0.08321328366289282</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-0.05405384115675094</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.2527483093463515</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-0.2674987412282675</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.067868263750269</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.1614093851305242</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.321437514183161</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.2118489315856791</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.1826894890795372</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-0.3813839572691378</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.07761257013415129</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.1711536915144065</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.3116932077992787</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.2021046252017968</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.172945182695655</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.3716396508852555</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>-0.1119472883713244</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.5947941876850096</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.4852056050875277</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.4560461625813858</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.6547406307709864</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.2799851348954449</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.170396552297963</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.1412371097918211</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.3399315779814217</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.1408857896223169</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.111726347116175</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.3104208153057756</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.2487487154747626</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.4474431836643632</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.3133716091653966</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-2.370851814991628</v>
+      </c>
+      <c r="C2">
         <v>4.980088350417627</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.914100259330812</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-1.007663050405132</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.151785810996945</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-1.058725277584959</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.7387768986157719</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-1.023574700606691</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.283909097128177</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.578499800897798</v>
-      </c>
-      <c r="K2">
-        <v>-0.126291689659926</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-2.068958431164939</v>
+      </c>
+      <c r="C3">
         <v>-1.162521222239259</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.3066439828310719</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-1.213583449419086</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.8936350704498988</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.178432872440818</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.4387672689623039</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.423641629063672</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.2811498614940529</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.258564523480767</v>
-      </c>
-      <c r="K3">
-        <v>-0.362242801501391</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.159761675145111</v>
+      </c>
+      <c r="C4">
         <v>-0.7471777914429032</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.4272294124737159</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.7120272144646351</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.02763838901387894</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.890047287039854</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.18525579648213</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.2078411344954159</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1041628564747918</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.6669592797219139</v>
-      </c>
-      <c r="K4">
-        <v>0.645129881850443</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.3606409925893859</v>
+      </c>
+      <c r="C5">
         <v>-0.6454387945803051</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.094226808898209</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.956635706924184</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.25184421636646</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.2744295543797459</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1707512763591219</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.733547699606244</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.711718301734773</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.06878967042524198</v>
-      </c>
-      <c r="K5">
-        <v>-0.07585302950734718</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-0.00705171436548202</v>
+      </c>
+      <c r="C6">
         <v>1.855357183660493</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.150565693102769</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.1731510311160549</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.06947275309543088</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.632269176342553</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.610439778471082</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.03248885283844904</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.1771315527710382</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3.06512068839229</v>
-      </c>
-      <c r="K6">
-        <v>0.717579642417056</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.438648942723936</v>
+      </c>
+      <c r="C7">
         <v>-0.4160636047106501</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.5197418827312741</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.04305454051584801</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.02122514264437703</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.621703488665154</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.7663461885977432</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.475906052565585</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.128365006590351</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.0773461044273549</v>
-      </c>
-      <c r="K7">
-        <v>-0.1858770778161649</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.2051465834729831</v>
+      </c>
+      <c r="C8">
         <v>0.357649839774139</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.335820441902668</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.307108189406863</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.4517508893394522</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.790501351823876</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.442960305848642</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2372491948309361</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.1287182214421261</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.716762606763196</v>
-      </c>
-      <c r="K8">
-        <v>0.1299501278036661</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.1880369324682649</v>
+      </c>
+      <c r="C9">
         <v>-0.4548916988412661</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.5995343987738553</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.642717842389473</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.2951767964142389</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.08946568539653299</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.01906528799227702</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.568979097328793</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.017833381630737</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.04792608349686112</v>
-      </c>
-      <c r="K9">
-        <v>0.2825416228645989</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.7978705363354901</v>
+      </c>
+      <c r="C10">
         <v>2.444381704827838</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.09684065885260407</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.1088704521651018</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.2174014255539118</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.370642959767158</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2161695191923718</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.2462622210584959</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.08420548530296412</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.986855503708843</v>
-      </c>
-      <c r="K10">
-        <v>1.177057127364582</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.160351569254027</v>
+      </c>
+      <c r="C11">
         <v>-0.3660626802717329</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.474593653660543</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2.113450731660527</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.4733617472990029</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.503454449165127</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.172986742803667</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.729663275602212</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.9198648992579507</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.8101767080015407</v>
-      </c>
-      <c r="K11">
-        <v>0.7375083943671028</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.5559229523184301</v>
+      </c>
+      <c r="C12">
         <v>2.03212143300264</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.5546910459568901</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.5847837478230142</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.2543160414615542</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.648333976944325</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.8385356006000635</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.7288474093436534</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.6561790957092157</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.2015507383974964</v>
-      </c>
-      <c r="K12">
-        <v>0.2301481051731102</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.7261033307157543</v>
+      </c>
+      <c r="C13">
         <v>-0.7561960325818784</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.4257283262204183</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.476921692185461</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.6671233158411993</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.5574351245847893</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.4847668109503515</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.03013845363863221</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.05873582041424608</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.1255934341205218</v>
-      </c>
-      <c r="K13">
-        <v>0.07524155101088037</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.3113985009507758</v>
+      </c>
+      <c r="C14">
         <v>1.591251517455103</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.7814531411108419</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.6717649498544318</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.5990966362199941</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.1444682789082747</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.1730656456838886</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.2399232593901643</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.1895713762805229</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.5989459313291519</v>
-      </c>
-      <c r="K14">
-        <v>0.1174818351405491</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.6597272585505181</v>
+      </c>
+      <c r="C15">
         <v>0.550039067294108</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.4773707536596702</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.02274239634795094</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.05133976312356481</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.1181973768298406</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.0678454937201991</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.4772200487688281</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.004244047419774688</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.1301625966174953</v>
-      </c>
-      <c r="K15">
-        <v>0.3987709681104405</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.09392012768274177</v>
+      </c>
+      <c r="C16">
         <v>-0.3607082296289775</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.3321108628533637</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.2652532491470879</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.3156051322567294</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.09376942279189956</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.3876946733967032</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.2532880293594332</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.01532034213351208</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.4779917171069542</v>
-      </c>
-      <c r="K16">
-        <v>-0.5270358698815244</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.3972247514947753</v>
+      </c>
+      <c r="C17">
         <v>-0.3303671377884996</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.380719020898141</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.02865553415048791</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.4528085620381148</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.3184019180008448</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.04979354650789958</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.5431056057483659</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.5921497585229361</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.358002594713227</v>
-      </c>
-      <c r="K17">
-        <v>0.329601513236895</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.03438388077139931</v>
+      </c>
+      <c r="C18">
         <v>0.3749906742772297</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.1064734219113731</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.02793322212589688</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.2965415936188421</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.1967704656216241</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.2458146183961943</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.01166745458648533</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.6759366533636367</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.9017124337290151</v>
-      </c>
-      <c r="K18">
-        <v>0.2967310218237472</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.0552921394135083</v>
+      </c>
+      <c r="C19">
         <v>0.07911450462376168</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.3477228761167069</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.1455891831237593</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.1946333358983295</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.03951382791137947</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.7271179358615015</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-0.8505311512311503</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.347912304321612</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.4727217927869887</v>
-      </c>
-      <c r="K19">
-        <v>0.1919150187030865</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.3042700010821392</v>
+      </c>
+      <c r="C20">
         <v>-0.1890420581583271</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.2380862109328973</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.003939047123188266</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.6836650608269338</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.893984026265718</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.3044594292870443</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.429268917752421</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.1484621436685188</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.729268917752421</v>
-      </c>
-      <c r="K20">
-        <v>-0.3213521090953776</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.2368524868831869</v>
+      </c>
+      <c r="C21">
         <v>-0.002705323073477928</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.6848987848766441</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.8927503022160077</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.3056931533367546</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.4305026418021313</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1496958677182291</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.730502641802131</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-0.3201183850456673</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.3711670725540226</v>
-      </c>
-      <c r="K21">
-        <v>-0.4204323423712357</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.8064180372849051</v>
+      </c>
+      <c r="C22">
         <v>-0.7712310498077467</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.4272124057450156</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.5520218942103923</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2712151201264901</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.852021894210393</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.1985991326374063</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.2496478201457616</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.2989130899629747</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1.052021894210392</v>
-      </c>
-      <c r="K22">
-        <v>0.165689649025785</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.8122491852642451</v>
+      </c>
+      <c r="C23">
         <v>0.3861942702885173</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.511003758753894</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.2301969846699918</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.811003758753894</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.2396172680939046</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.2906659556022599</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.3399312254194731</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.011003758753894</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1246715135692866</v>
-      </c>
-      <c r="K23">
-        <v>-0.087180650699618</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.474884175161462</v>
+      </c>
+      <c r="C24">
         <v>0.5996936636268386</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.3188868895429365</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1.899693663626839</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.1509273632209599</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.2019760507293152</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.2512413205465284</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.099693663626839</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.2133614184422313</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.001509254173326702</v>
-      </c>
-      <c r="K24">
-        <v>0.00248576550049362</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.3848049532429982</v>
+      </c>
+      <c r="C25">
         <v>0.103998179159096</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.684804953242998</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.3658160736048004</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.4168647611131557</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.4661300309303689</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.8848049532429982</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.001527291941609166</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.2133794562105138</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.2124029448833469</v>
-      </c>
-      <c r="K25">
-        <v>-0.1158583063797025</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>0.03280632616526441</v>
+      </c>
+      <c r="C26">
         <v>1.613613100249167</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.437007926598632</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.4880566141069873</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.5373218839242004</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.8136131002491667</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-0.07271914493544074</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-0.2845713092043454</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.2835947978771785</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-0.1870501593735341</v>
-      </c>
-      <c r="K26">
-        <v>-0.1869129306804567</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>1.587721344156545</v>
+      </c>
+      <c r="C27">
         <v>-0.4628996826912541</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.5139483701996095</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.5632136400168226</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.7877213441565445</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-0.09861090102806286</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-0.3104630652969675</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.3094865539698006</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-0.2129419154661562</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-0.2128046867730788</v>
-      </c>
-      <c r="K27">
-        <v>-1.014144664307419</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-0.6291575216728211</v>
+      </c>
+      <c r="C28">
         <v>-0.6802062091811765</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.7294714789983896</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.6214635051749775</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-0.2648687400096298</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.4767209042785345</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.4757443929513676</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.3791997544477232</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.3790625257546458</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1.180402503288986</v>
-      </c>
-      <c r="K28">
-        <v>-1.179247587459568</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.2388430710107394</v>
+      </c>
+      <c r="C29">
         <v>-0.2881083408279526</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.062826643345415</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.1764943981608071</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.03535776610809749</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.03438125478093057</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.06216338372271379</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.06230061241579121</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.7390393651185485</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.7378844492891314</v>
-      </c>
-      <c r="K29">
-        <v>-0.6349396499407245</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-0.3923094282001036</v>
+      </c>
+      <c r="C30">
         <v>0.9586255559732635</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.07229331078865608</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-0.1395588534802485</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-0.1385823421530816</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-0.04203770364943726</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.04190047495635985</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.8432404524906996</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.8420855366612825</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.7391407373128756</v>
-      </c>
-      <c r="K30">
-        <v>-0.2427458574451109</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>0.9780605604923323</v>
+      </c>
+      <c r="C31">
         <v>0.09172831530772496</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-0.1201238489611797</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.1191473376340128</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-0.02260269913036839</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-0.02246547043729097</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.8238054479716307</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.8226505321422136</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.7197057327938067</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.223310852926042</v>
-      </c>
-      <c r="K31">
-        <v>0.2742075829074565</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>0.002890801097111928</v>
+      </c>
+      <c r="C32">
         <v>-0.2089613631717927</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-0.2079848518446258</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-0.1114402133409814</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-0.111302984647904</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.9126429621822437</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.9114880463528267</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.8085432470044197</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.3121483671366551</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.1853700686968435</v>
-      </c>
-      <c r="K32">
-        <v>-0.4099512737799503</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-0.4644139252352402</v>
+      </c>
+      <c r="C33">
         <v>-0.4634374139080732</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-0.3668927754044289</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-0.3667555467113515</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-1.168095524245691</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-1.166940608416274</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-1.063995809067867</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.5676009292001025</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.07008249336660399</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.6654038358433978</v>
-      </c>
-      <c r="K33">
-        <v>-0.301268022531991</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>-0.4011844356027665</v>
+      </c>
+      <c r="C34">
         <v>-0.3046397970991221</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-0.3045025684060447</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-1.105842545940384</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-1.104687630110967</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-1.00174283076256</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.5053479508947958</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.007829515061297199</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.6031508575380911</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.2390150442266842</v>
-      </c>
-      <c r="K34">
-        <v>0.1825800689965065</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>-0.3636135816879729</v>
+      </c>
+      <c r="C35">
         <v>-0.3634763529948955</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-1.164816330529235</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-1.163661414699818</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-1.060716615351411</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-0.5643217354836465</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.06680329965014803</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-0.6621246421269418</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.2979888288155351</v>
-      </c>
-      <c r="J35">
-        <v>0.1236062844076557</v>
-      </c>
-      <c r="K35">
-        <v>-0.02587674415164681</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>-0.6743331315554215</v>
+      </c>
+      <c r="C36">
         <v>-1.475673109089761</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-1.474518193260344</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-1.371573393911937</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.8751785140441726</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.377660078210674</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-0.9729814206874678</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-0.6088456073760611</v>
-      </c>
-      <c r="I36">
-        <v>-0.1872504941528703</v>
-      </c>
-      <c r="J36">
-        <v>-0.3367335227121728</v>
-      </c>
-      <c r="K36">
-        <v>-0.2829264139790908</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-1.318333427655217</v>
+      </c>
+      <c r="C37">
         <v>-1.3171785118258</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-1.214233712477393</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.7178388326096282</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.2203203967761297</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.8156417392529235</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-0.4515059259415167</v>
-      </c>
-      <c r="H37">
-        <v>-0.02991081271832599</v>
-      </c>
-      <c r="I37">
-        <v>-0.1793938412776285</v>
-      </c>
-      <c r="J37">
-        <v>-0.1255867325445465</v>
-      </c>
-      <c r="K37">
-        <v>-0.4503357676748138</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>-1.355872477135903</v>
+      </c>
+      <c r="C38">
         <v>-1.252927677787496</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.7565327979197314</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.2590143620862329</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.8543357045630267</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.4901998912516199</v>
-      </c>
-      <c r="G38">
-        <v>-0.06860477802842918</v>
-      </c>
-      <c r="H38">
-        <v>-0.2180878065877317</v>
-      </c>
-      <c r="I38">
-        <v>-0.1642806978546497</v>
-      </c>
-      <c r="J38">
-        <v>-0.489029732984917</v>
-      </c>
-      <c r="K38">
-        <v>-0.1536627280063805</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>-1.205562805652449</v>
+      </c>
+      <c r="C39">
         <v>-0.7091679257846845</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.2116494899511859</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>-0.8069708324279797</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-0.442835019116573</v>
-      </c>
-      <c r="F39">
-        <v>-0.02123990589338218</v>
-      </c>
-      <c r="G39">
-        <v>-0.1707229344526847</v>
-      </c>
-      <c r="H39">
-        <v>-0.1169158257196027</v>
-      </c>
-      <c r="I39">
-        <v>-0.44166486084987</v>
-      </c>
-      <c r="J39">
-        <v>-0.1062978558713335</v>
-      </c>
-      <c r="K39">
-        <v>-0.01275673449107828</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>-1.080031721468842</v>
+      </c>
+      <c r="C40">
         <v>-0.5825132856353434</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-1.177834628112137</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-0.8136988148007305</v>
-      </c>
-      <c r="E40">
-        <v>-0.3921037015775397</v>
-      </c>
-      <c r="F40">
-        <v>-0.5415867301368422</v>
-      </c>
-      <c r="G40">
-        <v>-0.4877796214037602</v>
-      </c>
-      <c r="H40">
-        <v>-0.8125286565340275</v>
-      </c>
-      <c r="I40">
-        <v>-0.477161651555491</v>
-      </c>
-      <c r="J40">
-        <v>-0.3836205301752358</v>
-      </c>
-      <c r="K40">
-        <v>-0.866467429488921</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>-0.1041078397810949</v>
+      </c>
+      <c r="C41">
         <v>-0.6994291822578886</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-0.3352933689464819</v>
-      </c>
-      <c r="D41">
-        <v>0.08630174427670884</v>
-      </c>
-      <c r="E41">
-        <v>-0.06318128428259367</v>
-      </c>
-      <c r="F41">
-        <v>-0.009374175549511699</v>
-      </c>
-      <c r="G41">
-        <v>-0.334123210679779</v>
-      </c>
-      <c r="H41">
-        <v>0.001243794298757539</v>
-      </c>
-      <c r="I41">
-        <v>0.09478491567901273</v>
-      </c>
-      <c r="J41">
-        <v>-0.3880619836346724</v>
-      </c>
-      <c r="K41">
-        <v>-0.2784734010371906</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>-0.5611819026121054</v>
+      </c>
+      <c r="C42">
         <v>-0.1970460893006987</v>
-      </c>
-      <c r="C42">
-        <v>0.2245490239224921</v>
-      </c>
-      <c r="D42">
-        <v>0.07506599536318959</v>
-      </c>
-      <c r="E42">
-        <v>0.1288731040962716</v>
-      </c>
-      <c r="F42">
-        <v>-0.1958759310339957</v>
-      </c>
-      <c r="G42">
-        <v>0.1394910739445408</v>
-      </c>
-      <c r="H42">
-        <v>0.233032195324796</v>
-      </c>
-      <c r="I42">
-        <v>-0.2498147039888892</v>
-      </c>
-      <c r="J42">
-        <v>-0.1402261213914073</v>
-      </c>
-      <c r="K42">
-        <v>-0.1110666788852654</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.1735200387801499</v>
-      </c>
-      <c r="C43">
-        <v>0.02403701022084742</v>
-      </c>
-      <c r="D43">
-        <v>0.0778441189539294</v>
-      </c>
-      <c r="E43">
-        <v>-0.2469049161763379</v>
-      </c>
-      <c r="F43">
-        <v>0.08846208880219864</v>
-      </c>
-      <c r="G43">
-        <v>0.1820032101824538</v>
-      </c>
-      <c r="H43">
-        <v>-0.3008436891312313</v>
-      </c>
-      <c r="I43">
-        <v>-0.1912551065337495</v>
-      </c>
-      <c r="J43">
-        <v>-0.1620956640276076</v>
-      </c>
-      <c r="K43">
-        <v>-0.3607901322172082</v>
+        <v>-0.2480750744430408</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.009228378467612708</v>
-      </c>
-      <c r="C44">
-        <v>0.04457873026546927</v>
-      </c>
-      <c r="D44">
-        <v>-0.280170304864798</v>
-      </c>
-      <c r="E44">
-        <v>0.05519670011373851</v>
-      </c>
-      <c r="F44">
-        <v>0.1487378214939937</v>
-      </c>
-      <c r="G44">
-        <v>-0.3341090778196915</v>
-      </c>
-      <c r="H44">
-        <v>-0.2245204952222096</v>
-      </c>
-      <c r="I44">
-        <v>-0.1953610527160677</v>
-      </c>
-      <c r="J44">
-        <v>-0.3940555209056683</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.1858859418247861</v>
-      </c>
-      <c r="C45">
-        <v>-0.1388630933054812</v>
-      </c>
-      <c r="D45">
-        <v>0.1965039116730553</v>
-      </c>
-      <c r="E45">
-        <v>0.2900450330533105</v>
-      </c>
-      <c r="F45">
-        <v>-0.1928018662603747</v>
-      </c>
-      <c r="G45">
-        <v>-0.08321328366289282</v>
-      </c>
-      <c r="H45">
-        <v>-0.05405384115675094</v>
-      </c>
-      <c r="I45">
-        <v>-0.2527483093463515</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-0.2674987412282675</v>
-      </c>
-      <c r="C46">
-        <v>0.067868263750269</v>
-      </c>
-      <c r="D46">
-        <v>0.1614093851305242</v>
-      </c>
-      <c r="E46">
-        <v>-0.321437514183161</v>
-      </c>
-      <c r="F46">
-        <v>-0.2118489315856791</v>
-      </c>
-      <c r="G46">
-        <v>-0.1826894890795372</v>
-      </c>
-      <c r="H46">
-        <v>-0.3813839572691378</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.07761257013415129</v>
-      </c>
-      <c r="C47">
-        <v>0.1711536915144065</v>
-      </c>
-      <c r="D47">
-        <v>-0.3116932077992787</v>
-      </c>
-      <c r="E47">
-        <v>-0.2021046252017968</v>
-      </c>
-      <c r="F47">
-        <v>-0.172945182695655</v>
-      </c>
-      <c r="G47">
-        <v>-0.3716396508852555</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>-0.1119472883713244</v>
-      </c>
-      <c r="C48">
-        <v>-0.5947941876850096</v>
-      </c>
-      <c r="D48">
-        <v>-0.4852056050875277</v>
-      </c>
-      <c r="E48">
-        <v>-0.4560461625813858</v>
-      </c>
-      <c r="F48">
-        <v>-0.6547406307709864</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.2799851348954449</v>
-      </c>
-      <c r="C49">
-        <v>-0.170396552297963</v>
-      </c>
-      <c r="D49">
-        <v>-0.1412371097918211</v>
-      </c>
-      <c r="E49">
-        <v>-0.3399315779814217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.1408857896223169</v>
-      </c>
-      <c r="C50">
-        <v>-0.111726347116175</v>
-      </c>
-      <c r="D50">
-        <v>-0.3104208153057756</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.2487487154747626</v>
-      </c>
-      <c r="C51">
-        <v>-0.4474431836643632</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.3133716091653966</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>0.2133614184422313</v>
       </c>
       <c r="K24">
-        <v>0.001509254173326702</v>
+        <v>-1.07935118810383</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>-0.001527291941609166</v>
       </c>
       <c r="J25">
-        <v>-0.2133794562105138</v>
+        <v>-1.294239898487671</v>
       </c>
       <c r="K25">
-        <v>-0.2124029448833469</v>
+        <v>-0.004314562288779245</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>-0.07271914493544074</v>
       </c>
       <c r="I26">
-        <v>-0.2845713092043454</v>
+        <v>-1.365431751481502</v>
       </c>
       <c r="J26">
-        <v>-0.2835947978771785</v>
+        <v>-0.07550641528261082</v>
       </c>
       <c r="K26">
-        <v>-0.1870501593735341</v>
+        <v>2.133689136769128</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>-0.09861090102806286</v>
       </c>
       <c r="H27">
-        <v>-0.3104630652969675</v>
+        <v>-1.391323507574125</v>
       </c>
       <c r="I27">
-        <v>-0.3094865539698006</v>
+        <v>-0.1013981713752329</v>
       </c>
       <c r="J27">
-        <v>-0.2129419154661562</v>
+        <v>2.107797380676506</v>
       </c>
       <c r="K27">
-        <v>-0.2128046867730788</v>
+        <v>-0.7979924540782646</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>-0.2648687400096298</v>
       </c>
       <c r="G28">
-        <v>-0.4767209042785345</v>
+        <v>-1.557581346555692</v>
       </c>
       <c r="H28">
-        <v>-0.4757443929513676</v>
+        <v>-0.2676560103567999</v>
       </c>
       <c r="I28">
-        <v>-0.3791997544477232</v>
+        <v>1.941539541694938</v>
       </c>
       <c r="J28">
-        <v>-0.3790625257546458</v>
+        <v>-0.9642502930598316</v>
       </c>
       <c r="K28">
-        <v>-1.180402503288986</v>
+        <v>-0.6045730858673983</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>0.1764943981608071</v>
       </c>
       <c r="F29">
-        <v>-0.03535776610809749</v>
+        <v>-1.116218208385255</v>
       </c>
       <c r="G29">
-        <v>-0.03438125478093057</v>
+        <v>0.1737071278136371</v>
       </c>
       <c r="H29">
-        <v>0.06216338372271379</v>
+        <v>2.382902679865375</v>
       </c>
       <c r="I29">
-        <v>0.06230061241579121</v>
+        <v>-0.5228871548893945</v>
       </c>
       <c r="J29">
-        <v>-0.7390393651185485</v>
+        <v>-0.1632099476969613</v>
       </c>
       <c r="K29">
-        <v>-0.7378844492891314</v>
+        <v>-0.5610502672866085</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>0.07229331078865608</v>
       </c>
       <c r="E30">
-        <v>-0.1395588534802485</v>
+        <v>-1.220419295757406</v>
       </c>
       <c r="F30">
-        <v>-0.1385823421530816</v>
+        <v>0.06950604044148601</v>
       </c>
       <c r="G30">
-        <v>-0.04203770364943726</v>
+        <v>2.278701592493224</v>
       </c>
       <c r="H30">
-        <v>-0.04190047495635985</v>
+        <v>-0.6270882422615456</v>
       </c>
       <c r="I30">
-        <v>-0.8432404524906996</v>
+        <v>-0.2674110350691123</v>
       </c>
       <c r="J30">
-        <v>-0.8420855366612825</v>
+        <v>-0.6652513546587595</v>
       </c>
       <c r="K30">
-        <v>-0.7391407373128756</v>
+        <v>2.79540342832748</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>0.09172831530772496</v>
       </c>
       <c r="D31">
-        <v>-0.1201238489611797</v>
+        <v>-1.200984291238337</v>
       </c>
       <c r="E31">
-        <v>-0.1191473376340128</v>
+        <v>0.08894104496055488</v>
       </c>
       <c r="F31">
-        <v>-0.02260269913036839</v>
+        <v>2.298136597012293</v>
       </c>
       <c r="G31">
-        <v>-0.02246547043729097</v>
+        <v>-0.6076532377424767</v>
       </c>
       <c r="H31">
-        <v>-0.8238054479716307</v>
+        <v>-0.2479760305500435</v>
       </c>
       <c r="I31">
-        <v>-0.8226505321422136</v>
+        <v>-0.6458163501396906</v>
       </c>
       <c r="J31">
-        <v>-0.7197057327938067</v>
+        <v>2.814838432846548</v>
       </c>
       <c r="K31">
-        <v>-0.223310852926042</v>
+        <v>-0.1153445710032998</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>0.002890801097111928</v>
       </c>
       <c r="C32">
-        <v>-0.2089613631717927</v>
+        <v>-1.28982180544895</v>
       </c>
       <c r="D32">
-        <v>-0.2079848518446258</v>
+        <v>0.0001035307499418492</v>
       </c>
       <c r="E32">
-        <v>-0.1114402133409814</v>
+        <v>2.20929908280168</v>
       </c>
       <c r="F32">
-        <v>-0.111302984647904</v>
+        <v>-0.6964907519530897</v>
       </c>
       <c r="G32">
-        <v>-0.9126429621822437</v>
+        <v>-0.3368135447606565</v>
       </c>
       <c r="H32">
-        <v>-0.9114880463528267</v>
+        <v>-0.7346538643503037</v>
       </c>
       <c r="I32">
-        <v>-0.8085432470044197</v>
+        <v>2.726000918635935</v>
       </c>
       <c r="J32">
-        <v>-0.3121483671366551</v>
+        <v>-0.2041820852139128</v>
       </c>
       <c r="K32">
-        <v>0.1853700686968435</v>
+        <v>-0.4407524356782316</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.4644139252352402</v>
+        <v>-1.60769821002197</v>
       </c>
       <c r="C33">
-        <v>-0.4634374139080732</v>
+        <v>-0.3177728738230782</v>
       </c>
       <c r="D33">
-        <v>-0.3668927754044289</v>
+        <v>1.89142267822866</v>
       </c>
       <c r="E33">
-        <v>-0.3667555467113515</v>
+        <v>-1.01436715652611</v>
       </c>
       <c r="F33">
-        <v>-1.168095524245691</v>
+        <v>-0.6546899493336766</v>
       </c>
       <c r="G33">
-        <v>-1.166940608416274</v>
+        <v>-1.052530268923324</v>
       </c>
       <c r="H33">
-        <v>-1.063995809067867</v>
+        <v>2.408124514062915</v>
       </c>
       <c r="I33">
-        <v>-0.5676009292001025</v>
+        <v>-0.5220584897869329</v>
       </c>
       <c r="J33">
-        <v>-0.07008249336660399</v>
+        <v>-0.7586288402512518</v>
       </c>
       <c r="K33">
-        <v>-0.6654038358433978</v>
+        <v>-0.4330344082701784</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.4011844356027665</v>
+        <v>-0.1472629870857898</v>
       </c>
       <c r="C34">
-        <v>-0.3046397970991221</v>
+        <v>2.061932564965948</v>
       </c>
       <c r="D34">
-        <v>-0.3045025684060447</v>
+        <v>-0.8438572697888214</v>
       </c>
       <c r="E34">
-        <v>-1.105842545940384</v>
+        <v>-0.4841800625963882</v>
       </c>
       <c r="F34">
-        <v>-1.104687630110967</v>
+        <v>-0.8820203821860353</v>
       </c>
       <c r="G34">
-        <v>-1.00174283076256</v>
+        <v>2.578634400800203</v>
       </c>
       <c r="H34">
-        <v>-0.5053479508947958</v>
+        <v>-0.3515486030496445</v>
       </c>
       <c r="I34">
-        <v>-0.007829515061297199</v>
+        <v>-0.5881189535139633</v>
       </c>
       <c r="J34">
-        <v>-0.6031508575380911</v>
+        <v>-0.26252452153289</v>
       </c>
       <c r="K34">
-        <v>-0.2390150442266842</v>
+        <v>0.3012009511465751</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.3636135816879729</v>
+        <v>1.996107691246</v>
       </c>
       <c r="C35">
-        <v>-0.3634763529948955</v>
+        <v>-0.9096821435087703</v>
       </c>
       <c r="D35">
-        <v>-1.164816330529235</v>
+        <v>-0.5500049363163371</v>
       </c>
       <c r="E35">
-        <v>-1.163661414699818</v>
+        <v>-0.9478452559059842</v>
       </c>
       <c r="F35">
-        <v>-1.060716615351411</v>
+        <v>2.512809527080255</v>
       </c>
       <c r="G35">
-        <v>-0.5643217354836465</v>
+        <v>-0.4173734767695933</v>
       </c>
       <c r="H35">
-        <v>-0.06680329965014803</v>
+        <v>-0.6539438272339122</v>
       </c>
       <c r="I35">
-        <v>-0.6621246421269418</v>
+        <v>-0.3283493952528388</v>
       </c>
       <c r="J35">
-        <v>-0.2979888288155351</v>
+        <v>0.2353760774266263</v>
+      </c>
+      <c r="K35">
+        <v>-0.05077951757743471</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.6743331315554215</v>
+        <v>-1.206907598288802</v>
       </c>
       <c r="C36">
-        <v>-1.475673109089761</v>
+        <v>-0.8472303910963688</v>
       </c>
       <c r="D36">
-        <v>-1.474518193260344</v>
+        <v>-1.245070710686016</v>
       </c>
       <c r="E36">
-        <v>-1.371573393911937</v>
+        <v>2.215584072300223</v>
       </c>
       <c r="F36">
-        <v>-0.8751785140441726</v>
+        <v>-0.7145989315496251</v>
       </c>
       <c r="G36">
-        <v>-0.377660078210674</v>
+        <v>-0.9511692820139439</v>
       </c>
       <c r="H36">
-        <v>-0.9729814206874678</v>
+        <v>-0.6255748500328706</v>
       </c>
       <c r="I36">
-        <v>-0.6088456073760611</v>
+        <v>-0.06184937735340548</v>
+      </c>
+      <c r="J36">
+        <v>-0.3480049723574665</v>
+      </c>
+      <c r="K36">
+        <v>-0.2261594068364672</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1.318333427655217</v>
+        <v>-0.9426906110800261</v>
       </c>
       <c r="C37">
-        <v>-1.3171785118258</v>
+        <v>-1.340530930669673</v>
       </c>
       <c r="D37">
-        <v>-1.214233712477393</v>
+        <v>2.120123852316566</v>
       </c>
       <c r="E37">
-        <v>-0.7178388326096282</v>
+        <v>-0.8100591515332823</v>
       </c>
       <c r="F37">
-        <v>-0.2203203967761297</v>
+        <v>-1.046629501997601</v>
       </c>
       <c r="G37">
-        <v>-0.8156417392529235</v>
+        <v>-0.7210350700165279</v>
       </c>
       <c r="H37">
-        <v>-0.4515059259415167</v>
+        <v>-0.1573095973370627</v>
+      </c>
+      <c r="I37">
+        <v>-0.4434651923411237</v>
+      </c>
+      <c r="J37">
+        <v>-0.3216196268201244</v>
+      </c>
+      <c r="K37">
+        <v>-0.7552991710584124</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1.355872477135903</v>
+        <v>-1.239109404396835</v>
       </c>
       <c r="C38">
-        <v>-1.252927677787496</v>
+        <v>2.221545378589404</v>
       </c>
       <c r="D38">
-        <v>-0.7565327979197314</v>
+        <v>-0.7086376252604438</v>
       </c>
       <c r="E38">
-        <v>-0.2590143620862329</v>
+        <v>-0.9452079757247627</v>
       </c>
       <c r="F38">
-        <v>-0.8543357045630267</v>
+        <v>-0.6196135437436894</v>
       </c>
       <c r="G38">
-        <v>-0.4901998912516199</v>
+        <v>-0.05588807106422421</v>
+      </c>
+      <c r="H38">
+        <v>-0.3420436660682852</v>
+      </c>
+      <c r="I38">
+        <v>-0.2201981005472859</v>
+      </c>
+      <c r="J38">
+        <v>-0.6538776447855739</v>
+      </c>
+      <c r="K38">
+        <v>1.231998594101533</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1.205562805652449</v>
+        <v>2.289204730659292</v>
       </c>
       <c r="C39">
-        <v>-0.7091679257846845</v>
+        <v>-0.6409782731905561</v>
       </c>
       <c r="D39">
-        <v>-0.2116494899511859</v>
+        <v>-0.877548623654875</v>
       </c>
       <c r="E39">
-        <v>-0.8069708324279797</v>
+        <v>-0.5519541916738017</v>
       </c>
       <c r="F39">
-        <v>-0.442835019116573</v>
+        <v>0.01177128100566349</v>
+      </c>
+      <c r="G39">
+        <v>-0.2743843139983975</v>
+      </c>
+      <c r="H39">
+        <v>-0.1525387484773982</v>
+      </c>
+      <c r="I39">
+        <v>-0.5862182927156862</v>
+      </c>
+      <c r="J39">
+        <v>1.299657946171421</v>
+      </c>
+      <c r="K39">
+        <v>-0.4039011193250285</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1.080031721468842</v>
+        <v>-0.9522025808879372</v>
       </c>
       <c r="C40">
-        <v>-0.5825132856353434</v>
+        <v>-1.188772931352256</v>
       </c>
       <c r="D40">
-        <v>-1.177834628112137</v>
+        <v>-0.8631784993711827</v>
       </c>
       <c r="E40">
-        <v>-0.8136988148007305</v>
+        <v>-0.2994530266917176</v>
+      </c>
+      <c r="F40">
+        <v>-0.5856086216957785</v>
+      </c>
+      <c r="G40">
+        <v>-0.4637630561747793</v>
+      </c>
+      <c r="H40">
+        <v>-0.8974426004130672</v>
+      </c>
+      <c r="I40">
+        <v>0.9884336384740399</v>
+      </c>
+      <c r="J40">
+        <v>-0.7151254270224096</v>
+      </c>
+      <c r="K40">
+        <v>-0.7707069585466352</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.1041078397810949</v>
+        <v>-1.018399109085777</v>
       </c>
       <c r="C41">
-        <v>-0.6994291822578886</v>
+        <v>-0.6928046771047036</v>
       </c>
       <c r="D41">
-        <v>-0.3352933689464819</v>
+        <v>-0.1290792044252385</v>
+      </c>
+      <c r="E41">
+        <v>-0.4152347994292995</v>
+      </c>
+      <c r="F41">
+        <v>-0.2933892339083002</v>
+      </c>
+      <c r="G41">
+        <v>-0.7270687781465881</v>
+      </c>
+      <c r="H41">
+        <v>1.158807460740519</v>
+      </c>
+      <c r="I41">
+        <v>-0.5447516047559304</v>
+      </c>
+      <c r="J41">
+        <v>-0.6003331362801561</v>
+      </c>
+      <c r="K41">
+        <v>0.1866167262939342</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.5611819026121054</v>
+        <v>-0.3420236617375892</v>
       </c>
       <c r="C42">
-        <v>-0.1970460893006987</v>
+        <v>0.2217018109418759</v>
+      </c>
+      <c r="D42">
+        <v>-0.0644537840621851</v>
+      </c>
+      <c r="E42">
+        <v>0.05739178145881418</v>
+      </c>
+      <c r="F42">
+        <v>-0.3762877627794737</v>
+      </c>
+      <c r="G42">
+        <v>1.509588476107633</v>
+      </c>
+      <c r="H42">
+        <v>-0.1939705893888161</v>
+      </c>
+      <c r="I42">
+        <v>-0.2495521209130417</v>
+      </c>
+      <c r="J42">
+        <v>0.5373977416610486</v>
+      </c>
+      <c r="K42">
+        <v>-1.652299669136516</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.2480750744430408</v>
+        <v>0.2693094504600637</v>
+      </c>
+      <c r="C43">
+        <v>-0.0168461445439973</v>
+      </c>
+      <c r="D43">
+        <v>0.104999420977002</v>
+      </c>
+      <c r="E43">
+        <v>-0.3286801232612859</v>
+      </c>
+      <c r="F43">
+        <v>1.557196115625821</v>
+      </c>
+      <c r="G43">
+        <v>-0.1463629498706283</v>
+      </c>
+      <c r="H43">
+        <v>-0.2019444813948539</v>
+      </c>
+      <c r="I43">
+        <v>0.5850053811792364</v>
+      </c>
+      <c r="J43">
+        <v>-1.604692029618328</v>
+      </c>
+      <c r="K43">
+        <v>-0.7667009765463819</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.08931394985823571</v>
+      </c>
+      <c r="C44">
+        <v>0.03253161566276358</v>
+      </c>
+      <c r="D44">
+        <v>-0.4011479285755243</v>
+      </c>
+      <c r="E44">
+        <v>1.484728310311583</v>
+      </c>
+      <c r="F44">
+        <v>-0.2188307551848667</v>
+      </c>
+      <c r="G44">
+        <v>-0.2744122867090923</v>
+      </c>
+      <c r="H44">
+        <v>0.5125375758649979</v>
+      </c>
+      <c r="I44">
+        <v>-1.677159834932566</v>
+      </c>
+      <c r="J44">
+        <v>-0.8391687818606204</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.1051082466437293</v>
+      </c>
+      <c r="C45">
+        <v>-0.5387877908820172</v>
+      </c>
+      <c r="D45">
+        <v>1.34708844800509</v>
+      </c>
+      <c r="E45">
+        <v>-0.3564706174913596</v>
+      </c>
+      <c r="F45">
+        <v>-0.4120521490155852</v>
+      </c>
+      <c r="G45">
+        <v>0.3748977135585051</v>
+      </c>
+      <c r="H45">
+        <v>-1.814799697239059</v>
+      </c>
+      <c r="I45">
+        <v>-0.9768086441671132</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.2964732353216546</v>
+      </c>
+      <c r="C46">
+        <v>1.589403003565452</v>
+      </c>
+      <c r="D46">
+        <v>-0.1141560619309969</v>
+      </c>
+      <c r="E46">
+        <v>-0.1697375934552225</v>
+      </c>
+      <c r="F46">
+        <v>0.6172122691188677</v>
+      </c>
+      <c r="G46">
+        <v>-1.572485141678696</v>
+      </c>
+      <c r="H46">
+        <v>-0.7344940886067506</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>1.553990447017354</v>
+      </c>
+      <c r="C47">
+        <v>-0.1495686184790955</v>
+      </c>
+      <c r="D47">
+        <v>-0.2051501500033212</v>
+      </c>
+      <c r="E47">
+        <v>0.5817997125707691</v>
+      </c>
+      <c r="F47">
+        <v>-1.607897698226795</v>
+      </c>
+      <c r="G47">
+        <v>-0.7699066451548492</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>-0.3583240076259202</v>
+      </c>
+      <c r="C48">
+        <v>-0.4139055391501458</v>
+      </c>
+      <c r="D48">
+        <v>0.3730443234239444</v>
+      </c>
+      <c r="E48">
+        <v>-1.81665308737362</v>
+      </c>
+      <c r="F48">
+        <v>-0.9786620343016739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.2364856966075551</v>
+      </c>
+      <c r="C49">
+        <v>0.5504641659665352</v>
+      </c>
+      <c r="D49">
+        <v>-1.639233244831029</v>
+      </c>
+      <c r="E49">
+        <v>-0.8012421917590831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.6235572686657249</v>
+      </c>
+      <c r="C50">
+        <v>-1.566140142131839</v>
+      </c>
+      <c r="D50">
+        <v>-0.7281490890598934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-1.668261113776646</v>
+      </c>
+      <c r="C51">
+        <v>-0.8302700607047004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-0.7276043929666616</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>-0.151785810996945</v>
       </c>
-      <c r="G2">
-        <v>-1.058725277584959</v>
-      </c>
-      <c r="H2">
-        <v>-0.7387768986157719</v>
-      </c>
-      <c r="I2">
-        <v>-1.023574700606691</v>
-      </c>
-      <c r="J2">
-        <v>-0.283909097128177</v>
-      </c>
-      <c r="K2">
-        <v>1.578499800897798</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>-0.4387672689623039</v>
       </c>
-      <c r="I3">
-        <v>1.423641629063672</v>
-      </c>
-      <c r="J3">
-        <v>-0.2811498614940529</v>
-      </c>
-      <c r="K3">
-        <v>-0.258564523480767</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>0.02763838901387894</v>
       </c>
-      <c r="G4">
-        <v>1.890047287039854</v>
-      </c>
-      <c r="H4">
-        <v>0.18525579648213</v>
-      </c>
-      <c r="I4">
-        <v>0.2078411344954159</v>
-      </c>
-      <c r="J4">
-        <v>0.1041628564747918</v>
-      </c>
-      <c r="K4">
-        <v>0.6669592797219139</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>0.1707512763591219</v>
       </c>
-      <c r="I5">
-        <v>0.733547699606244</v>
-      </c>
-      <c r="J5">
-        <v>0.711718301734773</v>
-      </c>
-      <c r="K5">
-        <v>0.06878967042524198</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>0.06947275309543088</v>
       </c>
-      <c r="G6">
-        <v>0.632269176342553</v>
-      </c>
-      <c r="H6">
-        <v>0.610439778471082</v>
-      </c>
-      <c r="I6">
-        <v>-0.03248885283844904</v>
-      </c>
-      <c r="J6">
-        <v>-0.1771315527710382</v>
-      </c>
-      <c r="K6">
-        <v>3.06512068839229</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>-0.7663461885977432</v>
       </c>
-      <c r="I7">
-        <v>2.475906052565585</v>
-      </c>
-      <c r="J7">
-        <v>0.128365006590351</v>
-      </c>
-      <c r="K7">
-        <v>-0.0773461044273549</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>-0.4517508893394522</v>
       </c>
-      <c r="G8">
-        <v>2.790501351823876</v>
-      </c>
-      <c r="H8">
-        <v>0.442960305848642</v>
-      </c>
-      <c r="I8">
-        <v>0.2372491948309361</v>
-      </c>
-      <c r="J8">
-        <v>0.1287182214421261</v>
-      </c>
-      <c r="K8">
-        <v>2.716762606763196</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>-0.01906528799227702</v>
       </c>
-      <c r="I9">
-        <v>2.568979097328793</v>
-      </c>
-      <c r="J9">
-        <v>-0.017833381630737</v>
-      </c>
-      <c r="K9">
-        <v>-0.04792608349686112</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>-0.2174014255539118</v>
       </c>
-      <c r="G10">
-        <v>2.370642959767158</v>
-      </c>
-      <c r="H10">
-        <v>-0.2161695191923718</v>
-      </c>
-      <c r="I10">
-        <v>-0.2462622210584959</v>
-      </c>
-      <c r="J10">
-        <v>0.08420548530296412</v>
-      </c>
-      <c r="K10">
-        <v>1.986855503708843</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>-0.172986742803667</v>
       </c>
-      <c r="I11">
-        <v>1.729663275602212</v>
-      </c>
-      <c r="J11">
-        <v>0.9198648992579507</v>
-      </c>
-      <c r="K11">
-        <v>0.8101767080015407</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>-0.2543160414615542</v>
       </c>
-      <c r="G12">
-        <v>1.648333976944325</v>
-      </c>
-      <c r="H12">
-        <v>0.8385356006000635</v>
-      </c>
-      <c r="I12">
-        <v>0.7288474093436534</v>
-      </c>
-      <c r="J12">
-        <v>0.6561790957092157</v>
-      </c>
-      <c r="K12">
-        <v>0.2015507383974964</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>0.4847668109503515</v>
       </c>
-      <c r="I13">
-        <v>0.03013845363863221</v>
-      </c>
-      <c r="J13">
-        <v>0.05873582041424608</v>
-      </c>
-      <c r="K13">
-        <v>0.1255934341205218</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>0.5990966362199941</v>
       </c>
-      <c r="G14">
-        <v>0.1444682789082747</v>
-      </c>
-      <c r="H14">
-        <v>0.1730656456838886</v>
-      </c>
-      <c r="I14">
-        <v>0.2399232593901643</v>
-      </c>
-      <c r="J14">
-        <v>0.1895713762805229</v>
-      </c>
-      <c r="K14">
-        <v>0.5989459313291519</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>0.0678454937201991</v>
       </c>
-      <c r="I15">
-        <v>0.4772200487688281</v>
-      </c>
-      <c r="J15">
-        <v>-0.004244047419774688</v>
-      </c>
-      <c r="K15">
-        <v>0.1301625966174953</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.3156051322567294</v>
       </c>
-      <c r="G16">
-        <v>0.09376942279189956</v>
-      </c>
-      <c r="H16">
-        <v>-0.3876946733967032</v>
-      </c>
-      <c r="I16">
-        <v>-0.2532880293594332</v>
-      </c>
-      <c r="J16">
-        <v>0.01532034213351208</v>
-      </c>
-      <c r="K16">
-        <v>-0.4779917171069542</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-0.04979354650789958</v>
       </c>
-      <c r="I17">
-        <v>-0.5431056057483659</v>
-      </c>
-      <c r="J17">
-        <v>-0.5921497585229361</v>
-      </c>
-      <c r="K17">
-        <v>-0.358002594713227</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>0.6759366533636367</v>
       </c>
-      <c r="K18">
-        <v>-0.9017124337290151</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.7271179358615015</v>
       </c>
-      <c r="I19">
-        <v>-0.8505311512311503</v>
-      </c>
-      <c r="J19">
-        <v>0.347912304321612</v>
-      </c>
-      <c r="K19">
-        <v>0.4727217927869887</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.1484621436685188</v>
       </c>
-      <c r="K20">
-        <v>1.729268917752421</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.1496958677182291</v>
       </c>
-      <c r="I21">
-        <v>1.730502641802131</v>
-      </c>
-      <c r="J21">
-        <v>-0.3201183850456673</v>
-      </c>
-      <c r="K21">
-        <v>-0.3711670725540226</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.2989130899629747</v>
       </c>
-      <c r="K22">
-        <v>1.052021894210392</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>-0.3399312254194731</v>
       </c>
-      <c r="J23">
-        <v>1.011003758753894</v>
-      </c>
-      <c r="K23">
-        <v>0.1246715135692866</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>-0.2512413205465284</v>
       </c>
-      <c r="I24">
-        <v>1.099693663626839</v>
-      </c>
-      <c r="J24">
-        <v>0.2133614184422313</v>
-      </c>
-      <c r="K24">
-        <v>-1.07935118810383</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-0.07550641528261082</v>
       </c>
-      <c r="K26">
-        <v>2.133689136769128</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-0.1013981713752329</v>
       </c>
-      <c r="J27">
-        <v>2.107797380676506</v>
-      </c>
-      <c r="K27">
-        <v>-0.7979924540782646</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-0.2676560103567999</v>
       </c>
-      <c r="I28">
-        <v>1.941539541694938</v>
-      </c>
-      <c r="J28">
-        <v>-0.9642502930598316</v>
-      </c>
-      <c r="K28">
-        <v>-0.6045730858673983</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-0.6652513546587595</v>
       </c>
-      <c r="K30">
-        <v>2.79540342832748</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-0.6458163501396906</v>
       </c>
-      <c r="J31">
-        <v>2.814838432846548</v>
-      </c>
-      <c r="K31">
-        <v>-0.1153445710032998</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-0.7346538643503037</v>
       </c>
-      <c r="I32">
-        <v>2.726000918635935</v>
-      </c>
-      <c r="J32">
-        <v>-0.2041820852139128</v>
-      </c>
-      <c r="K32">
-        <v>-0.4407524356782316</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>-0.26252452153289</v>
       </c>
-      <c r="K34">
-        <v>0.3012009511465751</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>-0.3283493952528388</v>
       </c>
-      <c r="J35">
-        <v>0.2353760774266263</v>
-      </c>
-      <c r="K35">
-        <v>-0.05077951757743471</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-0.6255748500328706</v>
       </c>
-      <c r="I36">
-        <v>-0.06184937735340548</v>
-      </c>
-      <c r="J36">
-        <v>-0.3480049723574665</v>
-      </c>
-      <c r="K36">
-        <v>-0.2261594068364672</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>-0.6538776447855739</v>
       </c>
-      <c r="K38">
-        <v>1.231998594101533</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>-0.5862182927156862</v>
       </c>
-      <c r="J39">
-        <v>1.299657946171421</v>
-      </c>
-      <c r="K39">
-        <v>-0.4039011193250285</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>-0.8974426004130672</v>
       </c>
-      <c r="I40">
-        <v>0.9884336384740399</v>
-      </c>
-      <c r="J40">
-        <v>-0.7151254270224096</v>
-      </c>
-      <c r="K40">
-        <v>-0.7707069585466352</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>0.5373977416610486</v>
       </c>
-      <c r="K42">
-        <v>-1.652299669136516</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>0.5850053811792364</v>
       </c>
-      <c r="J43">
-        <v>-1.604692029618328</v>
-      </c>
-      <c r="K43">
-        <v>-0.7667009765463819</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>0.5125375758649979</v>
-      </c>
-      <c r="I44">
-        <v>-1.677159834932566</v>
-      </c>
-      <c r="J44">
-        <v>-0.8391687818606204</v>
       </c>
     </row>
     <row r="45" spans="1:11">
